--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mmrn2-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mmrn2-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Mmrn2</t>
   </si>
   <si>
     <t>Cd93</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>41.006619</v>
+        <v>46.105436</v>
       </c>
       <c r="H2">
-        <v>123.019857</v>
+        <v>138.316308</v>
       </c>
       <c r="I2">
-        <v>0.9349081063755518</v>
+        <v>0.929514990096053</v>
       </c>
       <c r="J2">
-        <v>0.9349081063755517</v>
+        <v>0.9295149900960532</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>169.629438</v>
+        <v>209.26237</v>
       </c>
       <c r="N2">
-        <v>508.888314</v>
+        <v>627.78711</v>
       </c>
       <c r="O2">
-        <v>0.7428377317484701</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="P2">
-        <v>0.7428377317484702</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="Q2">
-        <v>6955.929735250122</v>
+        <v>9648.132807243319</v>
       </c>
       <c r="R2">
-        <v>62603.3676172511</v>
+        <v>86833.19526518988</v>
       </c>
       <c r="S2">
-        <v>0.6944850171332723</v>
+        <v>0.7554314446350642</v>
       </c>
       <c r="T2">
-        <v>0.6944850171332723</v>
+        <v>0.7554314446350643</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>41.006619</v>
+        <v>46.105436</v>
       </c>
       <c r="H3">
-        <v>123.019857</v>
+        <v>138.316308</v>
       </c>
       <c r="I3">
-        <v>0.9349081063755518</v>
+        <v>0.929514990096053</v>
       </c>
       <c r="J3">
-        <v>0.9349081063755517</v>
+        <v>0.9295149900960532</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9848756666666665</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N3">
-        <v>2.954626999999999</v>
+        <v>2.954627</v>
       </c>
       <c r="O3">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="P3">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="Q3">
-        <v>40.386421225371</v>
+        <v>45.40812201745734</v>
       </c>
       <c r="R3">
-        <v>363.4777910283389</v>
+        <v>408.673098157116</v>
       </c>
       <c r="S3">
-        <v>0.004032209281027877</v>
+        <v>0.003555374278021997</v>
       </c>
       <c r="T3">
-        <v>0.004032209281027877</v>
+        <v>0.003555374278021998</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>41.006619</v>
+        <v>46.105436</v>
       </c>
       <c r="H4">
-        <v>123.019857</v>
+        <v>138.316308</v>
       </c>
       <c r="I4">
-        <v>0.9349081063755518</v>
+        <v>0.929514990096053</v>
       </c>
       <c r="J4">
-        <v>0.9349081063755517</v>
+        <v>0.9295149900960532</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.118221666666667</v>
+        <v>1.763846666666667</v>
       </c>
       <c r="N4">
-        <v>9.354665000000001</v>
+        <v>5.291539999999999</v>
       </c>
       <c r="O4">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="P4">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="Q4">
-        <v>127.867727842545</v>
+        <v>81.32291960381332</v>
       </c>
       <c r="R4">
-        <v>1150.809550582905</v>
+        <v>731.9062764343199</v>
       </c>
       <c r="S4">
-        <v>0.01276640572021668</v>
+        <v>0.006367438328805807</v>
       </c>
       <c r="T4">
-        <v>0.01276640572021668</v>
+        <v>0.006367438328805808</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,14 +708,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>41.006619</v>
+        <v>46.105436</v>
       </c>
       <c r="H5">
-        <v>123.019857</v>
+        <v>138.316308</v>
       </c>
       <c r="I5">
-        <v>0.9349081063755518</v>
+        <v>0.929514990096053</v>
       </c>
       <c r="J5">
-        <v>0.9349081063755517</v>
+        <v>0.9295149900960532</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.620752</v>
+        <v>45.474231</v>
       </c>
       <c r="N5">
-        <v>163.862256</v>
+        <v>136.422693</v>
       </c>
       <c r="O5">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="P5">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="Q5">
-        <v>2239.812366757488</v>
+        <v>2096.609247019716</v>
       </c>
       <c r="R5">
-        <v>20158.31130081739</v>
+        <v>18869.48322317744</v>
       </c>
       <c r="S5">
-        <v>0.2236244742410349</v>
+        <v>0.1641607328541611</v>
       </c>
       <c r="T5">
-        <v>0.2236244742410348</v>
+        <v>0.1641607328541611</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>6.206586999999999</v>
       </c>
       <c r="I6">
-        <v>0.0471679015138598</v>
+        <v>0.04170958390412858</v>
       </c>
       <c r="J6">
-        <v>0.04716790151385979</v>
+        <v>0.04170958390412859</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>169.629438</v>
+        <v>209.26237</v>
       </c>
       <c r="N6">
-        <v>508.888314</v>
+        <v>627.78711</v>
       </c>
       <c r="O6">
-        <v>0.7428377317484701</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="P6">
-        <v>0.7428377317484702</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="Q6">
-        <v>350.939954902702</v>
+        <v>432.9350350770633</v>
       </c>
       <c r="R6">
-        <v>3158.459594124317</v>
+        <v>3896.415315693569</v>
       </c>
       <c r="S6">
-        <v>0.03503809697189084</v>
+        <v>0.03389803452289378</v>
       </c>
       <c r="T6">
-        <v>0.03503809697189084</v>
+        <v>0.03389803452289378</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>6.206586999999999</v>
       </c>
       <c r="I7">
-        <v>0.0471679015138598</v>
+        <v>0.04170958390412858</v>
       </c>
       <c r="J7">
-        <v>0.04716790151385979</v>
+        <v>0.04170958390412859</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9848756666666665</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N7">
-        <v>2.954626999999999</v>
+        <v>2.954627</v>
       </c>
       <c r="O7">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="P7">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="Q7">
-        <v>2.037572169783222</v>
+        <v>2.037572169783223</v>
       </c>
       <c r="R7">
-        <v>18.33814952804899</v>
+        <v>18.338149528049</v>
       </c>
       <c r="S7">
-        <v>0.0002034326678245689</v>
+        <v>0.0001595382358969971</v>
       </c>
       <c r="T7">
-        <v>0.0002034326678245688</v>
+        <v>0.0001595382358969971</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>6.206586999999999</v>
       </c>
       <c r="I8">
-        <v>0.0471679015138598</v>
+        <v>0.04170958390412858</v>
       </c>
       <c r="J8">
-        <v>0.04716790151385979</v>
+        <v>0.04170958390412859</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.118221666666667</v>
+        <v>1.763846666666667</v>
       </c>
       <c r="N8">
-        <v>9.354665000000001</v>
+        <v>5.291539999999999</v>
       </c>
       <c r="O8">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="P8">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="Q8">
-        <v>6.451171353150555</v>
+        <v>3.649155930442222</v>
       </c>
       <c r="R8">
-        <v>58.06054217835499</v>
+        <v>32.84240337397999</v>
       </c>
       <c r="S8">
-        <v>0.0006440895779924577</v>
+        <v>0.0002857223455882573</v>
       </c>
       <c r="T8">
-        <v>0.0006440895779924575</v>
+        <v>0.0002857223455882574</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>6.206586999999999</v>
       </c>
       <c r="I9">
-        <v>0.0471679015138598</v>
+        <v>0.04170958390412858</v>
       </c>
       <c r="J9">
-        <v>0.04716790151385979</v>
+        <v>0.04170958390412859</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.620752</v>
+        <v>45.474231</v>
       </c>
       <c r="N9">
-        <v>163.862256</v>
+        <v>136.422693</v>
       </c>
       <c r="O9">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="P9">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="Q9">
-        <v>113.0028164311413</v>
+        <v>94.07992365319899</v>
       </c>
       <c r="R9">
-        <v>1017.025347880272</v>
+        <v>846.7193128787908</v>
       </c>
       <c r="S9">
-        <v>0.01128228229615193</v>
+        <v>0.00736628879974955</v>
       </c>
       <c r="T9">
-        <v>0.01128228229615192</v>
+        <v>0.007366288799749551</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7861760000000001</v>
+        <v>1.378131333333333</v>
       </c>
       <c r="H10">
-        <v>2.358528</v>
+        <v>4.134394</v>
       </c>
       <c r="I10">
-        <v>0.01792399211058844</v>
+        <v>0.02778400648145685</v>
       </c>
       <c r="J10">
-        <v>0.01792399211058843</v>
+        <v>0.02778400648145685</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.629438</v>
+        <v>209.26237</v>
       </c>
       <c r="N10">
-        <v>508.888314</v>
+        <v>627.78711</v>
       </c>
       <c r="O10">
-        <v>0.7428377317484701</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="P10">
-        <v>0.7428377317484702</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="Q10">
-        <v>133.358593049088</v>
+        <v>288.3910289845933</v>
       </c>
       <c r="R10">
-        <v>1200.227337441792</v>
+        <v>2595.51926086134</v>
       </c>
       <c r="S10">
-        <v>0.01331461764330699</v>
+        <v>0.02258049883828986</v>
       </c>
       <c r="T10">
-        <v>0.01331461764330699</v>
+        <v>0.02258049883828986</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7861760000000001</v>
+        <v>1.378131333333333</v>
       </c>
       <c r="H11">
-        <v>2.358528</v>
+        <v>4.134394</v>
       </c>
       <c r="I11">
-        <v>0.01792399211058844</v>
+        <v>0.02778400648145685</v>
       </c>
       <c r="J11">
-        <v>0.01792399211058843</v>
+        <v>0.02778400648145685</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9848756666666665</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N11">
-        <v>2.954626999999999</v>
+        <v>2.954627</v>
       </c>
       <c r="O11">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="P11">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="Q11">
-        <v>0.7742856121173333</v>
+        <v>1.357288015670889</v>
       </c>
       <c r="R11">
-        <v>6.968570509055999</v>
+        <v>12.215592141038</v>
       </c>
       <c r="S11">
-        <v>7.730523122916749E-05</v>
+        <v>0.0001062732102624405</v>
       </c>
       <c r="T11">
-        <v>7.730523122916748E-05</v>
+        <v>0.0001062732102624405</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7861760000000001</v>
+        <v>1.378131333333333</v>
       </c>
       <c r="H12">
-        <v>2.358528</v>
+        <v>4.134394</v>
       </c>
       <c r="I12">
-        <v>0.01792399211058844</v>
+        <v>0.02778400648145685</v>
       </c>
       <c r="J12">
-        <v>0.01792399211058843</v>
+        <v>0.02778400648145685</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.118221666666667</v>
+        <v>1.763846666666667</v>
       </c>
       <c r="N12">
-        <v>9.354665000000001</v>
+        <v>5.291539999999999</v>
       </c>
       <c r="O12">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="P12">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="Q12">
-        <v>2.451471037013334</v>
+        <v>2.430812358528889</v>
       </c>
       <c r="R12">
-        <v>22.06323933312</v>
+        <v>21.87731122676</v>
       </c>
       <c r="S12">
-        <v>0.0002447566277897008</v>
+        <v>0.0001903282353515737</v>
       </c>
       <c r="T12">
-        <v>0.0002447566277897008</v>
+        <v>0.0001903282353515738</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.378131333333333</v>
+      </c>
+      <c r="H13">
+        <v>4.134394</v>
+      </c>
+      <c r="I13">
+        <v>0.02778400648145685</v>
+      </c>
+      <c r="J13">
+        <v>0.02778400648145685</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>45.474231</v>
+      </c>
+      <c r="N13">
+        <v>136.422693</v>
+      </c>
+      <c r="O13">
+        <v>0.1766090214824801</v>
+      </c>
+      <c r="P13">
+        <v>0.1766090214824801</v>
+      </c>
+      <c r="Q13">
+        <v>62.66946260033799</v>
+      </c>
+      <c r="R13">
+        <v>564.0251634030419</v>
+      </c>
+      <c r="S13">
+        <v>0.004906906197552978</v>
+      </c>
+      <c r="T13">
+        <v>0.004906906197552979</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.7861760000000001</v>
-      </c>
-      <c r="H13">
-        <v>2.358528</v>
-      </c>
-      <c r="I13">
-        <v>0.01792399211058844</v>
-      </c>
-      <c r="J13">
-        <v>0.01792399211058843</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>54.620752</v>
-      </c>
-      <c r="N13">
-        <v>163.862256</v>
-      </c>
-      <c r="O13">
-        <v>0.2391940691454494</v>
-      </c>
-      <c r="P13">
-        <v>0.2391940691454494</v>
-      </c>
-      <c r="Q13">
-        <v>42.94152432435201</v>
-      </c>
-      <c r="R13">
-        <v>386.473718919168</v>
-      </c>
-      <c r="S13">
-        <v>0.00428731260826258</v>
-      </c>
-      <c r="T13">
-        <v>0.004287312608262579</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.049176</v>
+      </c>
+      <c r="H14">
+        <v>0.147528</v>
+      </c>
+      <c r="I14">
+        <v>0.0009914195183614249</v>
+      </c>
+      <c r="J14">
+        <v>0.0009914195183614251</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>209.26237</v>
+      </c>
+      <c r="N14">
+        <v>627.78711</v>
+      </c>
+      <c r="O14">
+        <v>0.8127157202241573</v>
+      </c>
+      <c r="P14">
+        <v>0.8127157202241573</v>
+      </c>
+      <c r="Q14">
+        <v>10.29068630712</v>
+      </c>
+      <c r="R14">
+        <v>92.61617676408</v>
+      </c>
+      <c r="S14">
+        <v>0.0008057422279093926</v>
+      </c>
+      <c r="T14">
+        <v>0.0008057422279093927</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.049176</v>
+      </c>
+      <c r="H15">
+        <v>0.147528</v>
+      </c>
+      <c r="I15">
+        <v>0.0009914195183614249</v>
+      </c>
+      <c r="J15">
+        <v>0.0009914195183614251</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.9848756666666668</v>
+      </c>
+      <c r="N15">
+        <v>2.954627</v>
+      </c>
+      <c r="O15">
+        <v>0.003824977881910862</v>
+      </c>
+      <c r="P15">
+        <v>0.003824977881910862</v>
+      </c>
+      <c r="Q15">
+        <v>0.048432245784</v>
+      </c>
+      <c r="R15">
+        <v>0.435890212056</v>
+      </c>
+      <c r="S15">
+        <v>3.79215772942717E-06</v>
+      </c>
+      <c r="T15">
+        <v>3.792157729427171E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.049176</v>
+      </c>
+      <c r="H16">
+        <v>0.147528</v>
+      </c>
+      <c r="I16">
+        <v>0.0009914195183614249</v>
+      </c>
+      <c r="J16">
+        <v>0.0009914195183614251</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.763846666666667</v>
+      </c>
+      <c r="N16">
+        <v>5.291539999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.006850280411451801</v>
+      </c>
+      <c r="P16">
+        <v>0.006850280411451801</v>
+      </c>
+      <c r="Q16">
+        <v>0.08673892368</v>
+      </c>
+      <c r="R16">
+        <v>0.7806503131199999</v>
+      </c>
+      <c r="S16">
+        <v>6.791501706162248E-06</v>
+      </c>
+      <c r="T16">
+        <v>6.791501706162249E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.049176</v>
+      </c>
+      <c r="H17">
+        <v>0.147528</v>
+      </c>
+      <c r="I17">
+        <v>0.0009914195183614249</v>
+      </c>
+      <c r="J17">
+        <v>0.0009914195183614251</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>45.474231</v>
+      </c>
+      <c r="N17">
+        <v>136.422693</v>
+      </c>
+      <c r="O17">
+        <v>0.1766090214824801</v>
+      </c>
+      <c r="P17">
+        <v>0.1766090214824801</v>
+      </c>
+      <c r="Q17">
+        <v>2.236240783656</v>
+      </c>
+      <c r="R17">
+        <v>20.12616705290399</v>
+      </c>
+      <c r="S17">
+        <v>0.000175093631016443</v>
+      </c>
+      <c r="T17">
+        <v>0.000175093631016443</v>
       </c>
     </row>
   </sheetData>
